--- a/A_prepost_processing/all_data.xlsx
+++ b/A_prepost_processing/all_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wulic\Documents\GitHub\urban_climate_and_who\A_prepost_processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7A330D-AD23-4247-A16A-539A5B664971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4C21A5-AA82-430F-8F6F-2561ADE5CC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>online,meteo,cvrmse</t>
   </si>
@@ -159,6 +159,9 @@
   <si>
     <t>theta_canyon, 90.0</t>
   </si>
+  <si>
+    <t>Theme+Variable</t>
+  </si>
 </sst>
 </file>
 
@@ -236,6 +239,3495 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CVRMSE(%) based on VCWG_MeteoData.Pres/Rural_Measurements</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>online,meteo,cvrmse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>albedo, 0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>albedo, 0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>albedo, 0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>albedoNoIDF, +0.05(NI)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>albedoNoIDF, +0.25(NI)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>albedoNoIDF, +0.7(NI)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>canyonWidth9ToRoofWidth, 18.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>canyonWidth9ToRoofWidth, 4.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>canyonWidth9ToRoofWidth, 9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>canyonWidthToHeight15, 15.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>canyonWidthToHeight15, 30.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>canyonWidthToHeight15, 8.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>fveg_G, 0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>fveg_G, 0.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>fveg_G, 1.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>theta_canyon, 0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>theta_canyon, -56.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>theta_canyon, -90.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>theta_canyon, 180.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>theta_canyon, 90.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>NoCoolingAlbedo, 0.05</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>NoCoolingAlbedo, 0.25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>NoCoolingAlbedo, 0.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>NoCoolingAlbedoNoIDF, +0.05(NI)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>NoCoolingAlbedoNoIDF, +0.25(NI)</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>NoCoolingAlbedoNoIDF, +0.7(NI)</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>NoCoolingCanyonWidth9ToRoofWidth, 18.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>NoCoolingCanyonWidth9ToRoofWidth, 4.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>NoCoolingCanyonWidth9ToRoofWidth, 9.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>NoCoolingCanyonWidthToHeight15, 15.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>NoCoolingCanyonWidthToHeight15, 30.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>NoCoolingCanyonWidthToHeight15, 8.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>NoCoolingTheta_canyon, 0.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>NoCoolingTheta_canyon, -56.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>NoCoolingTheta_canyon, -90.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>NoCoolingTheta_canyon, 180.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>NoCoolingTheta_canyon, 90.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>NoCooling_fveg_G, 0.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>NoCooling_fveg_G, 0.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>NoCooling_fveg_G, 1.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>12.757</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.811999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.478</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.537000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.804</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.645</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.795</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.901999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.721</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.053000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.742000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.329000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.797000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.662000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.723000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.805999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.795</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.856999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.723000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.221</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.811999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.209</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.67</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.115</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.680999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.606</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10.863</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.973000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10.673</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.666</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.698</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10.68</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10.699</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10.683999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10.698</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11.17</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.685</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.565</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DEE9-422A-8BA5-601573E5D34E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>offline,meteo,cvrmse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>albedo, 0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>albedo, 0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>albedo, 0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>albedoNoIDF, +0.05(NI)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>albedoNoIDF, +0.25(NI)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>albedoNoIDF, +0.7(NI)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>canyonWidth9ToRoofWidth, 18.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>canyonWidth9ToRoofWidth, 4.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>canyonWidth9ToRoofWidth, 9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>canyonWidthToHeight15, 15.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>canyonWidthToHeight15, 30.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>canyonWidthToHeight15, 8.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>fveg_G, 0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>fveg_G, 0.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>fveg_G, 1.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>theta_canyon, 0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>theta_canyon, -56.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>theta_canyon, -90.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>theta_canyon, 180.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>theta_canyon, 90.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>NoCoolingAlbedo, 0.05</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>NoCoolingAlbedo, 0.25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>NoCoolingAlbedo, 0.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>NoCoolingAlbedoNoIDF, +0.05(NI)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>NoCoolingAlbedoNoIDF, +0.25(NI)</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>NoCoolingAlbedoNoIDF, +0.7(NI)</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>NoCoolingCanyonWidth9ToRoofWidth, 18.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>NoCoolingCanyonWidth9ToRoofWidth, 4.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>NoCoolingCanyonWidth9ToRoofWidth, 9.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>NoCoolingCanyonWidthToHeight15, 15.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>NoCoolingCanyonWidthToHeight15, 30.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>NoCoolingCanyonWidthToHeight15, 8.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>NoCoolingTheta_canyon, 0.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>NoCoolingTheta_canyon, -56.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>NoCoolingTheta_canyon, -90.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>NoCoolingTheta_canyon, 180.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>NoCoolingTheta_canyon, 90.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>NoCooling_fveg_G, 0.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>NoCooling_fveg_G, 0.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>NoCooling_fveg_G, 1.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>13.962</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.391999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.172000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.962</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.391999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.172000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.397</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.696</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.76</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.250999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.419</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.47</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.845000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.397</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.287000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.397</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.397</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.397</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.397</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.397</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.962</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.391999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.172000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.962</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13.391999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.172000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.397</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.696</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12.76</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13.250999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12.419</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13.47</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13.397</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.397</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13.397</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13.397</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13.397</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13.845000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13.397</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13.287000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DEE9-422A-8BA5-601573E5D34E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>online,rural,cvrmse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>albedo, 0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>albedo, 0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>albedo, 0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>albedoNoIDF, +0.05(NI)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>albedoNoIDF, +0.25(NI)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>albedoNoIDF, +0.7(NI)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>canyonWidth9ToRoofWidth, 18.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>canyonWidth9ToRoofWidth, 4.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>canyonWidth9ToRoofWidth, 9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>canyonWidthToHeight15, 15.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>canyonWidthToHeight15, 30.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>canyonWidthToHeight15, 8.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>fveg_G, 0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>fveg_G, 0.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>fveg_G, 1.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>theta_canyon, 0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>theta_canyon, -56.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>theta_canyon, -90.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>theta_canyon, 180.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>theta_canyon, 90.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>NoCoolingAlbedo, 0.05</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>NoCoolingAlbedo, 0.25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>NoCoolingAlbedo, 0.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>NoCoolingAlbedoNoIDF, +0.05(NI)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>NoCoolingAlbedoNoIDF, +0.25(NI)</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>NoCoolingAlbedoNoIDF, +0.7(NI)</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>NoCoolingCanyonWidth9ToRoofWidth, 18.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>NoCoolingCanyonWidth9ToRoofWidth, 4.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>NoCoolingCanyonWidth9ToRoofWidth, 9.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>NoCoolingCanyonWidthToHeight15, 15.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>NoCoolingCanyonWidthToHeight15, 30.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>NoCoolingCanyonWidthToHeight15, 8.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>NoCoolingTheta_canyon, 0.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>NoCoolingTheta_canyon, -56.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>NoCoolingTheta_canyon, -90.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>NoCoolingTheta_canyon, 180.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>NoCoolingTheta_canyon, 90.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>NoCooling_fveg_G, 0.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>NoCooling_fveg_G, 0.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>NoCooling_fveg_G, 1.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>12.757</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.814</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.489000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.536</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.805999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.654999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.798</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.911</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.346</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.726000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.058999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.744</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.332000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.664999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.726000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.808</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.798</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.86</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.726000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.222</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.815</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.21</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.673</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.125999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.683999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.615</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10.87</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.978</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10.68</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.667999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.701000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10.683</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10.702999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10.688000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10.701000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11.173999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.688000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.568</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DEE9-422A-8BA5-601573E5D34E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>offline,rural,cvrmse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>albedo, 0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>albedo, 0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>albedo, 0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>albedoNoIDF, +0.05(NI)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>albedoNoIDF, +0.25(NI)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>albedoNoIDF, +0.7(NI)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>canyonWidth9ToRoofWidth, 18.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>canyonWidth9ToRoofWidth, 4.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>canyonWidth9ToRoofWidth, 9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>canyonWidthToHeight15, 15.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>canyonWidthToHeight15, 30.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>canyonWidthToHeight15, 8.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>fveg_G, 0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>fveg_G, 0.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>fveg_G, 1.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>theta_canyon, 0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>theta_canyon, -56.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>theta_canyon, -90.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>theta_canyon, 180.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>theta_canyon, 90.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>NoCoolingAlbedo, 0.05</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>NoCoolingAlbedo, 0.25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>NoCoolingAlbedo, 0.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>NoCoolingAlbedoNoIDF, +0.05(NI)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>NoCoolingAlbedoNoIDF, +0.25(NI)</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>NoCoolingAlbedoNoIDF, +0.7(NI)</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>NoCoolingCanyonWidth9ToRoofWidth, 18.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>NoCoolingCanyonWidth9ToRoofWidth, 4.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>NoCoolingCanyonWidth9ToRoofWidth, 9.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>NoCoolingCanyonWidthToHeight15, 15.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>NoCoolingCanyonWidthToHeight15, 30.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>NoCoolingCanyonWidthToHeight15, 8.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>NoCoolingTheta_canyon, 0.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>NoCoolingTheta_canyon, -56.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>NoCoolingTheta_canyon, -90.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>NoCoolingTheta_canyon, 180.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>NoCoolingTheta_canyon, 90.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>NoCooling_fveg_G, 0.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>NoCooling_fveg_G, 0.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>NoCooling_fveg_G, 1.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>13.964</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.396000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.183</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.964</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.396000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.183</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.401999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.705</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.766</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.256</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.426</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.475</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.401999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.292</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.401999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.401999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.401999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.401999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.401999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.964</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.396000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.183</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.964</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13.396000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.183</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.401999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.705</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12.766</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13.256</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12.426</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13.475</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13.401999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.401999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13.401999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13.401999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13.401999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13.85</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13.401999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13.292</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DEE9-422A-8BA5-601573E5D34E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="50014800"/>
+        <c:axId val="49999824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50014800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="49999824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="49999824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="9.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50014800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total Site Energy, Total Energy,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> GJ</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>online,total_site_energy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>albedo, 0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>albedo, 0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>albedo, 0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>albedoNoIDF, +0.05(NI)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>albedoNoIDF, +0.25(NI)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>albedoNoIDF, +0.7(NI)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>canyonWidth9ToRoofWidth, 18.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>canyonWidth9ToRoofWidth, 4.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>canyonWidth9ToRoofWidth, 9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>canyonWidthToHeight15, 15.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>canyonWidthToHeight15, 30.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>canyonWidthToHeight15, 8.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>fveg_G, 0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>fveg_G, 0.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>fveg_G, 1.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>theta_canyon, 0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>theta_canyon, -56.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>theta_canyon, -90.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>theta_canyon, 180.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>theta_canyon, 90.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>NoCoolingAlbedo, 0.05</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>NoCoolingAlbedo, 0.25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>NoCoolingAlbedo, 0.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>NoCoolingAlbedoNoIDF, +0.05(NI)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>NoCoolingAlbedoNoIDF, +0.25(NI)</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>NoCoolingAlbedoNoIDF, +0.7(NI)</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>NoCoolingCanyonWidth9ToRoofWidth, 18.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>NoCoolingCanyonWidth9ToRoofWidth, 4.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>NoCoolingCanyonWidth9ToRoofWidth, 9.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>NoCoolingCanyonWidthToHeight15, 15.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>NoCoolingCanyonWidthToHeight15, 30.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>NoCoolingCanyonWidthToHeight15, 8.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>NoCoolingTheta_canyon, 0.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>NoCoolingTheta_canyon, -56.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>NoCoolingTheta_canyon, -90.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>NoCoolingTheta_canyon, 180.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>NoCoolingTheta_canyon, 90.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>NoCooling_fveg_G, 0.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>NoCooling_fveg_G, 0.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>NoCooling_fveg_G, 1.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>266.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>261.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>249.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>264.66000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>261.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>252.76</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>261.20999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>253.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.66000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>259.52999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>255.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>261.68</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>263.91000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>261.22000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>260.61</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>262.14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>261.23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>259.74</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>262.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>259.54000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>212.34</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>256.11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>209.61</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>212.35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>211.53</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>209.62</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>211.56</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>209.99</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>210.67</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>211.27</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>210.39</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>211.66</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>211.55</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>211.56</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>211.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>211.55</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>211.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>212.08</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>211.56</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>211.47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B568-4401-B8F5-AE72213F6D91}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>offline,total_site_energy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>albedo, 0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>albedo, 0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>albedo, 0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>albedoNoIDF, +0.05(NI)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>albedoNoIDF, +0.25(NI)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>albedoNoIDF, +0.7(NI)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>canyonWidth9ToRoofWidth, 18.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>canyonWidth9ToRoofWidth, 4.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>canyonWidth9ToRoofWidth, 9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>canyonWidthToHeight15, 15.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>canyonWidthToHeight15, 30.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>canyonWidthToHeight15, 8.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>fveg_G, 0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>fveg_G, 0.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>fveg_G, 1.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>theta_canyon, 0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>theta_canyon, -56.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>theta_canyon, -90.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>theta_canyon, 180.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>theta_canyon, 90.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>NoCoolingAlbedo, 0.05</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>NoCoolingAlbedo, 0.25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>NoCoolingAlbedo, 0.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>NoCoolingAlbedoNoIDF, +0.05(NI)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>NoCoolingAlbedoNoIDF, +0.25(NI)</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>NoCoolingAlbedoNoIDF, +0.7(NI)</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>NoCoolingCanyonWidth9ToRoofWidth, 18.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>NoCoolingCanyonWidth9ToRoofWidth, 4.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>NoCoolingCanyonWidth9ToRoofWidth, 9.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>NoCoolingCanyonWidthToHeight15, 15.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>NoCoolingCanyonWidthToHeight15, 30.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>NoCoolingCanyonWidthToHeight15, 8.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>NoCoolingTheta_canyon, 0.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>NoCoolingTheta_canyon, -56.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>NoCoolingTheta_canyon, -90.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>NoCoolingTheta_canyon, 180.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>NoCoolingTheta_canyon, 90.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>NoCooling_fveg_G, 0.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>NoCooling_fveg_G, 0.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>NoCooling_fveg_G, 1.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>264.81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>259.66000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>248.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>263.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>259.66000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>251.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>259.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>253.26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.04000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>258.51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>254.57</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>260.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>262.52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>259.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>259.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>260.64</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>259.75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>258.31</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>260.63</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>258.27</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>212.59</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>255.04</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>209.84</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>212.59</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>211.77</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>209.84</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>211.79</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>210.22</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>210.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>211.46</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>210.48</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>211.89</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>211.79</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>211.79</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>211.82</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>211.79</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>211.82</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>212.32</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>211.79</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>211.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B568-4401-B8F5-AE72213F6D91}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="49656048"/>
+        <c:axId val="49656880"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="49656048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="49656880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="49656880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="49656048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>163287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>235644</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>23950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B873E19E-9FA7-9AC0-E2C8-0A6ABE38A2F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>468087</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>107910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>195944</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>167545</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{380438C0-035A-95D2-2B53-FD1278CE67A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -561,8 +4053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -577,6 +4069,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -943,427 +4438,427 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B17">
-        <v>11.221</v>
+        <v>11.723000000000001</v>
       </c>
       <c r="C17">
-        <v>11.222</v>
+        <v>11.726000000000001</v>
       </c>
       <c r="D17">
-        <v>212.34</v>
+        <v>262.14</v>
       </c>
       <c r="E17">
-        <v>13.962</v>
+        <v>13.397</v>
       </c>
       <c r="F17">
-        <v>13.964</v>
+        <v>13.401999999999999</v>
       </c>
       <c r="G17">
-        <v>212.59</v>
+        <v>260.64</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B18">
-        <v>11.811999999999999</v>
+        <v>11.805999999999999</v>
       </c>
       <c r="C18">
-        <v>11.815</v>
+        <v>11.808</v>
       </c>
       <c r="D18">
-        <v>256.11</v>
+        <v>261.23</v>
       </c>
       <c r="E18">
-        <v>13.391999999999999</v>
+        <v>13.397</v>
       </c>
       <c r="F18">
-        <v>13.396000000000001</v>
+        <v>13.401999999999999</v>
       </c>
       <c r="G18">
-        <v>255.04</v>
+        <v>259.75</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B19">
-        <v>10.119999999999999</v>
+        <v>11.795</v>
       </c>
       <c r="C19">
-        <v>10.130000000000001</v>
+        <v>11.798</v>
       </c>
       <c r="D19">
-        <v>209.61</v>
+        <v>259.74</v>
       </c>
       <c r="E19">
-        <v>12.172000000000001</v>
+        <v>13.397</v>
       </c>
       <c r="F19">
-        <v>12.183</v>
+        <v>13.401999999999999</v>
       </c>
       <c r="G19">
-        <v>209.84</v>
+        <v>258.31</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B20">
-        <v>11.209</v>
+        <v>11.856999999999999</v>
       </c>
       <c r="C20">
-        <v>11.21</v>
+        <v>11.86</v>
       </c>
       <c r="D20">
-        <v>212.35</v>
+        <v>262.25</v>
       </c>
       <c r="E20">
-        <v>13.962</v>
+        <v>13.397</v>
       </c>
       <c r="F20">
-        <v>13.964</v>
+        <v>13.401999999999999</v>
       </c>
       <c r="G20">
-        <v>212.59</v>
+        <v>260.63</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B21">
-        <v>10.67</v>
+        <v>11.723000000000001</v>
       </c>
       <c r="C21">
-        <v>10.673</v>
+        <v>11.726000000000001</v>
       </c>
       <c r="D21">
-        <v>211.53</v>
+        <v>259.54000000000002</v>
       </c>
       <c r="E21">
-        <v>13.391999999999999</v>
+        <v>13.397</v>
       </c>
       <c r="F21">
-        <v>13.396000000000001</v>
+        <v>13.401999999999999</v>
       </c>
       <c r="G21">
-        <v>211.77</v>
+        <v>258.27</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>10.115</v>
+        <v>11.221</v>
       </c>
       <c r="C22">
-        <v>10.125999999999999</v>
+        <v>11.222</v>
       </c>
       <c r="D22">
-        <v>209.62</v>
+        <v>212.34</v>
       </c>
       <c r="E22">
-        <v>12.172000000000001</v>
+        <v>13.962</v>
       </c>
       <c r="F22">
-        <v>12.183</v>
+        <v>13.964</v>
       </c>
       <c r="G22">
-        <v>209.84</v>
+        <v>212.59</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>10.680999999999999</v>
+        <v>11.811999999999999</v>
       </c>
       <c r="C23">
-        <v>10.683999999999999</v>
+        <v>11.815</v>
       </c>
       <c r="D23">
-        <v>211.56</v>
+        <v>256.11</v>
       </c>
       <c r="E23">
-        <v>13.397</v>
+        <v>13.391999999999999</v>
       </c>
       <c r="F23">
-        <v>13.401999999999999</v>
+        <v>13.396000000000001</v>
       </c>
       <c r="G23">
-        <v>211.79</v>
+        <v>255.04</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>10.606</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="C24">
-        <v>10.615</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="D24">
-        <v>209.99</v>
+        <v>209.61</v>
       </c>
       <c r="E24">
-        <v>11.696</v>
+        <v>12.172000000000001</v>
       </c>
       <c r="F24">
-        <v>11.705</v>
+        <v>12.183</v>
       </c>
       <c r="G24">
-        <v>210.22</v>
+        <v>209.84</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>10.863</v>
+        <v>11.209</v>
       </c>
       <c r="C25">
-        <v>10.87</v>
+        <v>11.21</v>
       </c>
       <c r="D25">
-        <v>210.67</v>
+        <v>212.35</v>
       </c>
       <c r="E25">
-        <v>12.76</v>
+        <v>13.962</v>
       </c>
       <c r="F25">
-        <v>12.766</v>
+        <v>13.964</v>
       </c>
       <c r="G25">
-        <v>210.9</v>
+        <v>212.59</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>10.973000000000001</v>
+        <v>10.67</v>
       </c>
       <c r="C26">
-        <v>10.978</v>
+        <v>10.673</v>
       </c>
       <c r="D26">
-        <v>211.27</v>
+        <v>211.53</v>
       </c>
       <c r="E26">
-        <v>13.250999999999999</v>
+        <v>13.391999999999999</v>
       </c>
       <c r="F26">
-        <v>13.256</v>
+        <v>13.396000000000001</v>
       </c>
       <c r="G26">
-        <v>211.46</v>
+        <v>211.77</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>10.673</v>
+        <v>10.115</v>
       </c>
       <c r="C27">
-        <v>10.68</v>
+        <v>10.125999999999999</v>
       </c>
       <c r="D27">
-        <v>210.39</v>
+        <v>209.62</v>
       </c>
       <c r="E27">
-        <v>12.419</v>
+        <v>12.172000000000001</v>
       </c>
       <c r="F27">
-        <v>12.426</v>
+        <v>12.183</v>
       </c>
       <c r="G27">
-        <v>210.48</v>
+        <v>209.84</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>10.666</v>
+        <v>10.680999999999999</v>
       </c>
       <c r="C28">
-        <v>10.667999999999999</v>
+        <v>10.683999999999999</v>
       </c>
       <c r="D28">
-        <v>211.66</v>
+        <v>211.56</v>
       </c>
       <c r="E28">
-        <v>13.47</v>
+        <v>13.397</v>
       </c>
       <c r="F28">
-        <v>13.475</v>
+        <v>13.401999999999999</v>
       </c>
       <c r="G28">
-        <v>211.89</v>
+        <v>211.79</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>10.698</v>
+        <v>10.606</v>
       </c>
       <c r="C29">
-        <v>10.701000000000001</v>
+        <v>10.615</v>
       </c>
       <c r="D29">
-        <v>211.55</v>
+        <v>209.99</v>
       </c>
       <c r="E29">
-        <v>13.397</v>
+        <v>11.696</v>
       </c>
       <c r="F29">
-        <v>13.401999999999999</v>
+        <v>11.705</v>
       </c>
       <c r="G29">
-        <v>211.79</v>
+        <v>210.22</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>10.68</v>
+        <v>10.863</v>
       </c>
       <c r="C30">
-        <v>10.683</v>
+        <v>10.87</v>
       </c>
       <c r="D30">
-        <v>211.56</v>
+        <v>210.67</v>
       </c>
       <c r="E30">
-        <v>13.397</v>
+        <v>12.76</v>
       </c>
       <c r="F30">
-        <v>13.401999999999999</v>
+        <v>12.766</v>
       </c>
       <c r="G30">
-        <v>211.79</v>
+        <v>210.9</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>10.699</v>
+        <v>10.973000000000001</v>
       </c>
       <c r="C31">
-        <v>10.702999999999999</v>
+        <v>10.978</v>
       </c>
       <c r="D31">
-        <v>211.6</v>
+        <v>211.27</v>
       </c>
       <c r="E31">
-        <v>13.397</v>
+        <v>13.250999999999999</v>
       </c>
       <c r="F31">
-        <v>13.401999999999999</v>
+        <v>13.256</v>
       </c>
       <c r="G31">
-        <v>211.82</v>
+        <v>211.46</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>10.683999999999999</v>
+        <v>10.673</v>
       </c>
       <c r="C32">
-        <v>10.688000000000001</v>
+        <v>10.68</v>
       </c>
       <c r="D32">
-        <v>211.55</v>
+        <v>210.39</v>
       </c>
       <c r="E32">
-        <v>13.397</v>
+        <v>12.419</v>
       </c>
       <c r="F32">
-        <v>13.401999999999999</v>
+        <v>12.426</v>
       </c>
       <c r="G32">
-        <v>211.79</v>
+        <v>210.48</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>10.698</v>
+        <v>10.666</v>
       </c>
       <c r="C33">
-        <v>10.701000000000001</v>
+        <v>10.667999999999999</v>
       </c>
       <c r="D33">
-        <v>211.6</v>
+        <v>211.66</v>
       </c>
       <c r="E33">
-        <v>13.397</v>
+        <v>13.47</v>
       </c>
       <c r="F33">
-        <v>13.401999999999999</v>
+        <v>13.475</v>
       </c>
       <c r="G33">
-        <v>211.82</v>
+        <v>211.89</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>11.17</v>
+        <v>10.698</v>
       </c>
       <c r="C34">
-        <v>11.173999999999999</v>
+        <v>10.701000000000001</v>
       </c>
       <c r="D34">
-        <v>212.08</v>
+        <v>211.55</v>
       </c>
       <c r="E34">
-        <v>13.845000000000001</v>
+        <v>13.397</v>
       </c>
       <c r="F34">
-        <v>13.85</v>
+        <v>13.401999999999999</v>
       </c>
       <c r="G34">
-        <v>212.32</v>
+        <v>211.79</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>10.685</v>
+        <v>10.68</v>
       </c>
       <c r="C35">
-        <v>10.688000000000001</v>
+        <v>10.683</v>
       </c>
       <c r="D35">
         <v>211.56</v>
@@ -1380,39 +4875,39 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>10.565</v>
+        <v>10.699</v>
       </c>
       <c r="C36">
-        <v>10.568</v>
+        <v>10.702999999999999</v>
       </c>
       <c r="D36">
-        <v>211.47</v>
+        <v>211.6</v>
       </c>
       <c r="E36">
-        <v>13.287000000000001</v>
+        <v>13.397</v>
       </c>
       <c r="F36">
-        <v>13.292</v>
+        <v>13.401999999999999</v>
       </c>
       <c r="G36">
-        <v>211.7</v>
+        <v>211.82</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>11.723000000000001</v>
+        <v>10.683999999999999</v>
       </c>
       <c r="C37">
-        <v>11.726000000000001</v>
+        <v>10.688000000000001</v>
       </c>
       <c r="D37">
-        <v>262.14</v>
+        <v>211.55</v>
       </c>
       <c r="E37">
         <v>13.397</v>
@@ -1421,21 +4916,21 @@
         <v>13.401999999999999</v>
       </c>
       <c r="G37">
-        <v>260.64</v>
+        <v>211.79</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>11.805999999999999</v>
+        <v>10.698</v>
       </c>
       <c r="C38">
-        <v>11.808</v>
+        <v>10.701000000000001</v>
       </c>
       <c r="D38">
-        <v>261.23</v>
+        <v>211.6</v>
       </c>
       <c r="E38">
         <v>13.397</v>
@@ -1444,44 +4939,44 @@
         <v>13.401999999999999</v>
       </c>
       <c r="G38">
-        <v>259.75</v>
+        <v>211.82</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>11.795</v>
+        <v>11.17</v>
       </c>
       <c r="C39">
-        <v>11.798</v>
+        <v>11.173999999999999</v>
       </c>
       <c r="D39">
-        <v>259.74</v>
+        <v>212.08</v>
       </c>
       <c r="E39">
-        <v>13.397</v>
+        <v>13.845000000000001</v>
       </c>
       <c r="F39">
-        <v>13.401999999999999</v>
+        <v>13.85</v>
       </c>
       <c r="G39">
-        <v>258.31</v>
+        <v>212.32</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>11.856999999999999</v>
+        <v>10.685</v>
       </c>
       <c r="C40">
-        <v>11.86</v>
+        <v>10.688000000000001</v>
       </c>
       <c r="D40">
-        <v>262.25</v>
+        <v>211.56</v>
       </c>
       <c r="E40">
         <v>13.397</v>
@@ -1490,33 +4985,34 @@
         <v>13.401999999999999</v>
       </c>
       <c r="G40">
-        <v>260.63</v>
+        <v>211.79</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>11.723000000000001</v>
+        <v>10.565</v>
       </c>
       <c r="C41">
-        <v>11.726000000000001</v>
+        <v>10.568</v>
       </c>
       <c r="D41">
-        <v>259.54000000000002</v>
+        <v>211.47</v>
       </c>
       <c r="E41">
-        <v>13.397</v>
+        <v>13.287000000000001</v>
       </c>
       <c r="F41">
-        <v>13.401999999999999</v>
+        <v>13.292</v>
       </c>
       <c r="G41">
-        <v>258.27</v>
+        <v>211.7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/A_prepost_processing/all_data.xlsx
+++ b/A_prepost_processing/all_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wulic\Documents\GitHub\urban_climate_and_who\A_prepost_processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4C21A5-AA82-430F-8F6F-2561ADE5CC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACF1E00-B777-4870-8662-74634CA532CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>online,meteo,cvrmse</t>
   </si>
@@ -158,9 +158,6 @@
   </si>
   <si>
     <t>theta_canyon, 90.0</t>
-  </si>
-  <si>
-    <t>Theme+Variable</t>
   </si>
 </sst>
 </file>
@@ -256,31 +253,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>CVRMSE(%) based on VCWG_MeteoData.Pres/Rural_Measurements</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -313,8 +285,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -331,17 +304,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$41</c:f>
@@ -537,13 +508,13 @@
                   <c:v>11.723000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11.221</c:v>
+                  <c:v>11.214</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11.811999999999999</c:v>
+                  <c:v>10.677</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10.119999999999999</c:v>
+                  <c:v>10.113</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>11.209</c:v>
@@ -599,880 +570,9 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DEE9-422A-8BA5-601573E5D34E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>offline,meteo,cvrmse</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$41</c:f>
-              <c:strCache>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>albedo, 0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>albedo, 0.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>albedo, 0.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>albedoNoIDF, +0.05(NI)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>albedoNoIDF, +0.25(NI)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>albedoNoIDF, +0.7(NI)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>canyonWidth9ToRoofWidth, 18.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>canyonWidth9ToRoofWidth, 4.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>canyonWidth9ToRoofWidth, 9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>canyonWidthToHeight15, 15.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>canyonWidthToHeight15, 30.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>canyonWidthToHeight15, 8.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>fveg_G, 0.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>fveg_G, 0.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>fveg_G, 1.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>theta_canyon, 0.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>theta_canyon, -56.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>theta_canyon, -90.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>theta_canyon, 180.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>theta_canyon, 90.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>NoCoolingAlbedo, 0.05</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>NoCoolingAlbedo, 0.25</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>NoCoolingAlbedo, 0.7</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>NoCoolingAlbedoNoIDF, +0.05(NI)</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>NoCoolingAlbedoNoIDF, +0.25(NI)</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>NoCoolingAlbedoNoIDF, +0.7(NI)</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>NoCoolingCanyonWidth9ToRoofWidth, 18.2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>NoCoolingCanyonWidth9ToRoofWidth, 4.5</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>NoCoolingCanyonWidth9ToRoofWidth, 9.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>NoCoolingCanyonWidthToHeight15, 15.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>NoCoolingCanyonWidthToHeight15, 30.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>NoCoolingCanyonWidthToHeight15, 8.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>NoCoolingTheta_canyon, 0.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>NoCoolingTheta_canyon, -56.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>NoCoolingTheta_canyon, -90.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>NoCoolingTheta_canyon, 180.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>NoCoolingTheta_canyon, 90.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>NoCooling_fveg_G, 0.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>NoCooling_fveg_G, 0.5</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>NoCooling_fveg_G, 1.0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$2:$E$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>13.962</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.391999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.172000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.962</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.391999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.172000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.397</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11.696</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.76</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13.250999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.419</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13.47</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13.845000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13.397</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>13.287000000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>13.397</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>13.397</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>13.397</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>13.397</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>13.397</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>13.962</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>13.391999999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>12.172000000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>13.962</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>13.391999999999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>12.172000000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>13.397</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>11.696</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>12.76</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>13.250999999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>12.419</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>13.47</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>13.397</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>13.397</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>13.397</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>13.397</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>13.397</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>13.845000000000001</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>13.397</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>13.287000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DEE9-422A-8BA5-601573E5D34E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>online,rural,cvrmse</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$41</c:f>
-              <c:strCache>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>albedo, 0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>albedo, 0.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>albedo, 0.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>albedoNoIDF, +0.05(NI)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>albedoNoIDF, +0.25(NI)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>albedoNoIDF, +0.7(NI)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>canyonWidth9ToRoofWidth, 18.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>canyonWidth9ToRoofWidth, 4.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>canyonWidth9ToRoofWidth, 9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>canyonWidthToHeight15, 15.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>canyonWidthToHeight15, 30.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>canyonWidthToHeight15, 8.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>fveg_G, 0.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>fveg_G, 0.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>fveg_G, 1.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>theta_canyon, 0.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>theta_canyon, -56.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>theta_canyon, -90.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>theta_canyon, 180.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>theta_canyon, 90.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>NoCoolingAlbedo, 0.05</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>NoCoolingAlbedo, 0.25</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>NoCoolingAlbedo, 0.7</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>NoCoolingAlbedoNoIDF, +0.05(NI)</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>NoCoolingAlbedoNoIDF, +0.25(NI)</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>NoCoolingAlbedoNoIDF, +0.7(NI)</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>NoCoolingCanyonWidth9ToRoofWidth, 18.2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>NoCoolingCanyonWidth9ToRoofWidth, 4.5</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>NoCoolingCanyonWidth9ToRoofWidth, 9.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>NoCoolingCanyonWidthToHeight15, 15.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>NoCoolingCanyonWidthToHeight15, 30.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>NoCoolingCanyonWidthToHeight15, 8.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>NoCoolingTheta_canyon, 0.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>NoCoolingTheta_canyon, -56.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>NoCoolingTheta_canyon, -90.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>NoCoolingTheta_canyon, 180.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>NoCoolingTheta_canyon, 90.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>NoCooling_fveg_G, 0.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>NoCooling_fveg_G, 0.5</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>NoCooling_fveg_G, 1.0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>12.757</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.814</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.489000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.536</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.805999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10.654999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.798</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.911</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.346</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.726000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.058999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.744</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12.332000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11.8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11.664999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>11.726000000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11.808</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11.798</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>11.86</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>11.726000000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>11.222</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>11.815</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>10.130000000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>11.21</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10.673</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>10.125999999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>10.683999999999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>10.615</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>10.87</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>10.978</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>10.68</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>10.667999999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>10.701000000000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>10.683</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>10.702999999999999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>10.688000000000001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>10.701000000000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>11.173999999999999</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>10.688000000000001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>10.568</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-DEE9-422A-8BA5-601573E5D34E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>offline,rural,cvrmse</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$41</c:f>
-              <c:strCache>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>albedo, 0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>albedo, 0.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>albedo, 0.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>albedoNoIDF, +0.05(NI)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>albedoNoIDF, +0.25(NI)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>albedoNoIDF, +0.7(NI)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>canyonWidth9ToRoofWidth, 18.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>canyonWidth9ToRoofWidth, 4.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>canyonWidth9ToRoofWidth, 9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>canyonWidthToHeight15, 15.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>canyonWidthToHeight15, 30.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>canyonWidthToHeight15, 8.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>fveg_G, 0.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>fveg_G, 0.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>fveg_G, 1.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>theta_canyon, 0.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>theta_canyon, -56.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>theta_canyon, -90.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>theta_canyon, 180.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>theta_canyon, 90.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>NoCoolingAlbedo, 0.05</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>NoCoolingAlbedo, 0.25</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>NoCoolingAlbedo, 0.7</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>NoCoolingAlbedoNoIDF, +0.05(NI)</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>NoCoolingAlbedoNoIDF, +0.25(NI)</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>NoCoolingAlbedoNoIDF, +0.7(NI)</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>NoCoolingCanyonWidth9ToRoofWidth, 18.2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>NoCoolingCanyonWidth9ToRoofWidth, 4.5</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>NoCoolingCanyonWidth9ToRoofWidth, 9.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>NoCoolingCanyonWidthToHeight15, 15.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>NoCoolingCanyonWidthToHeight15, 30.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>NoCoolingCanyonWidthToHeight15, 8.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>NoCoolingTheta_canyon, 0.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>NoCoolingTheta_canyon, -56.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>NoCoolingTheta_canyon, -90.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>NoCoolingTheta_canyon, 180.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>NoCoolingTheta_canyon, 90.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>NoCooling_fveg_G, 0.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>NoCooling_fveg_G, 0.5</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>NoCooling_fveg_G, 1.0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$2:$F$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>13.964</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.396000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.183</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.964</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.396000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.183</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.401999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11.705</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.766</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13.256</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.426</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13.475</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13.85</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13.401999999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>13.292</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>13.401999999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>13.401999999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>13.401999999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>13.401999999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>13.401999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>13.964</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>13.396000000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>12.183</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>13.964</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>13.396000000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>12.183</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>13.401999999999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>11.705</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>12.766</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>13.256</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>12.426</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>13.475</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>13.401999999999999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>13.401999999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>13.401999999999999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>13.401999999999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>13.401999999999999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>13.85</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>13.401999999999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>13.292</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-DEE9-422A-8BA5-601573E5D34E}"/>
+              <c16:uniqueId val="{00000000-58E6-4C8C-B729-89A56DD7CB78}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1484,12 +584,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="50014800"/>
-        <c:axId val="49999824"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="56470656"/>
+        <c:axId val="56471072"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="50014800"/>
+        <c:axId val="56470656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1532,7 +632,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49999824"/>
+        <c:crossAx val="56471072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1540,10 +640,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49999824"/>
+        <c:axId val="56471072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="9.5"/>
+          <c:min val="9"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1592,7 +692,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50014800"/>
+        <c:crossAx val="56470656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1604,37 +704,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1694,35 +763,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Total Site Energy, Total Energy,</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> GJ</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1755,8 +795,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1773,17 +814,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$41</c:f>
@@ -1979,10 +1018,10 @@
                   <c:v>259.54000000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>212.34</c:v>
+                  <c:v>212.35</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>256.11</c:v>
+                  <c:v>211.54</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>209.61</c:v>
@@ -2041,300 +1080,9 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B568-4401-B8F5-AE72213F6D91}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>offline,total_site_energy</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$41</c:f>
-              <c:strCache>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>albedo, 0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>albedo, 0.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>albedo, 0.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>albedoNoIDF, +0.05(NI)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>albedoNoIDF, +0.25(NI)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>albedoNoIDF, +0.7(NI)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>canyonWidth9ToRoofWidth, 18.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>canyonWidth9ToRoofWidth, 4.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>canyonWidth9ToRoofWidth, 9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>canyonWidthToHeight15, 15.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>canyonWidthToHeight15, 30.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>canyonWidthToHeight15, 8.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>fveg_G, 0.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>fveg_G, 0.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>fveg_G, 1.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>theta_canyon, 0.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>theta_canyon, -56.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>theta_canyon, -90.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>theta_canyon, 180.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>theta_canyon, 90.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>NoCoolingAlbedo, 0.05</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>NoCoolingAlbedo, 0.25</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>NoCoolingAlbedo, 0.7</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>NoCoolingAlbedoNoIDF, +0.05(NI)</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>NoCoolingAlbedoNoIDF, +0.25(NI)</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>NoCoolingAlbedoNoIDF, +0.7(NI)</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>NoCoolingCanyonWidth9ToRoofWidth, 18.2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>NoCoolingCanyonWidth9ToRoofWidth, 4.5</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>NoCoolingCanyonWidth9ToRoofWidth, 9.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>NoCoolingCanyonWidthToHeight15, 15.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>NoCoolingCanyonWidthToHeight15, 30.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>NoCoolingCanyonWidthToHeight15, 8.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>NoCoolingTheta_canyon, 0.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>NoCoolingTheta_canyon, -56.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>NoCoolingTheta_canyon, -90.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>NoCoolingTheta_canyon, 180.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>NoCoolingTheta_canyon, 90.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>NoCooling_fveg_G, 0.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>NoCooling_fveg_G, 0.5</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>NoCooling_fveg_G, 1.0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$G$2:$G$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>264.81</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>259.66000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>248.55</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>263.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>259.66000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>251.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>259.75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>253.26</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256.04000000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>258.51</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>254.57</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>260.10000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>262.52</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>259.75</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>259.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>260.64</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>259.75</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>258.31</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>260.63</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>258.27</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>212.59</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>255.04</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>209.84</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>212.59</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>211.77</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>209.84</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>211.79</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>210.22</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>210.9</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>211.46</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>210.48</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>211.89</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>211.79</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>211.79</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>211.82</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>211.79</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>211.82</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>212.32</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>211.79</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>211.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B568-4401-B8F5-AE72213F6D91}"/>
+              <c16:uniqueId val="{00000000-F027-4FB1-B6D3-D3C7353DFA23}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2346,12 +1094,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="49656048"/>
-        <c:axId val="49656880"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="460491312"/>
+        <c:axId val="460485904"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="49656048"/>
+        <c:axId val="460491312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2394,7 +1142,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49656880"/>
+        <c:crossAx val="460485904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2402,7 +1150,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49656880"/>
+        <c:axId val="460485904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="200"/>
@@ -2454,7 +1202,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49656048"/>
+        <c:crossAx val="460491312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2466,37 +1214,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3658,22 +2375,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>457201</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>163287</xdr:rowOff>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>235644</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>23950</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B873E19E-9FA7-9AC0-E2C8-0A6ABE38A2F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ECBB4FF-6717-3083-7E3B-7F8195F30C95}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3694,22 +2411,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>468087</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>107910</xdr:rowOff>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>195944</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>167545</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{380438C0-035A-95D2-2B53-FD1278CE67A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E5BFEF1-BFB7-F6CA-2CC0-2848E89A2B80}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4053,8 +2770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4062,16 +2779,9 @@
     <col min="1" max="1" width="38.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>46</v>
-      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4556,13 +3266,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>11.221</v>
+        <v>11.214</v>
       </c>
       <c r="C22">
-        <v>11.222</v>
+        <v>11.215</v>
       </c>
       <c r="D22">
-        <v>212.34</v>
+        <v>212.35</v>
       </c>
       <c r="E22">
         <v>13.962</v>
@@ -4579,13 +3289,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>11.811999999999999</v>
+        <v>10.677</v>
       </c>
       <c r="C23">
-        <v>11.815</v>
+        <v>10.68</v>
       </c>
       <c r="D23">
-        <v>256.11</v>
+        <v>211.54</v>
       </c>
       <c r="E23">
         <v>13.391999999999999</v>
@@ -4602,10 +3312,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>10.119999999999999</v>
+        <v>10.113</v>
       </c>
       <c r="C24">
-        <v>10.130000000000001</v>
+        <v>10.122999999999999</v>
       </c>
       <c r="D24">
         <v>209.61</v>
